--- a/软件项目跟踪与管理/Public/Sprint1测试用例.xlsx
+++ b/软件项目跟踪与管理/Public/Sprint1测试用例.xlsx
@@ -198,11 +198,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舒倩雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功</t>
+  </si>
+  <si>
+    <t>舒倩雯、张楠凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -262,7 +262,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -273,17 +279,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,209 +568,209 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>42129</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>42130</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>1.2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>1.3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="8"/>
       <c r="B10">
         <v>1.4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -780,34 +780,34 @@
       <c r="B11">
         <v>2.1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
